--- a/public/archiv/stastical-excel-file.xlsx
+++ b/public/archiv/stastical-excel-file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25af417140c0ccf/Dokumente/GitHub/andresbucher.github.io/archiv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25af417140c0ccf/Dokumente/GitHub/andresbucher.github.io/public/archiv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{23F8A855-97B2-4714-BD8D-1B5C57A06C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1017D549-D763-4188-97FF-F6DE4E1605D6}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{23F8A855-97B2-4714-BD8D-1B5C57A06C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B06B0123-D8F4-4CE7-9F31-F2BBCD9BF30D}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="18240" xr2:uid="{AF332C3D-C464-423A-A6E2-F39E4DA65F35}"/>
   </bookViews>
@@ -211,7 +211,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1712471037543958E-2"/>
+          <c:y val="0.11368585119277189"/>
+          <c:w val="0.81117601024582919"/>
+          <c:h val="0.68009670379743659"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -548,6 +558,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>season</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -693,10 +728,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -704,14 +736,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH"/>
-                  <a:t>number</a:t>
+                  <a:rPr lang="de-CH" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>total fruits</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-CH" baseline="0"/>
-                  <a:t> of fruits</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-CH"/>
+                <a:endParaRPr lang="de-CH">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -730,10 +766,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -791,6 +824,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="801206831"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1460,7 +1494,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809626</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>102576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>197828</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29D104B-CF0A-AF85-4815-BE40E9E5EE33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="675909" y="4266101"/>
+          <a:ext cx="2894135" cy="282086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1000"/>
+            <a:t>median,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1000" baseline="0"/>
+            <a:t> mean and deviation</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1762,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83018423-AE67-4EDC-9E72-E07D19C3F655}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/archiv/stastical-excel-file.xlsx
+++ b/public/archiv/stastical-excel-file.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="116" documentId="8_{23F8A855-97B2-4714-BD8D-1B5C57A06C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B06B0123-D8F4-4CE7-9F31-F2BBCD9BF30D}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="18240" xr2:uid="{AF332C3D-C464-423A-A6E2-F39E4DA65F35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AF332C3D-C464-423A-A6E2-F39E4DA65F35}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1569,10 +1569,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1872,18 +1868,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83018423-AE67-4EDC-9E72-E07D19C3F655}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -1891,7 +1887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1898,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1913,7 +1909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1925,7 +1921,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1937,7 +1933,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1950,37 +1946,37 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
